--- a/TestData/logins.xlsx
+++ b/TestData/logins.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E174E-C1E4-6842-8202-1074D42E3DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12DE0AC-5613-7A41-8D47-CD3D24B839F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-660" windowWidth="38400" windowHeight="19540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-660" windowWidth="38400" windowHeight="19540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <t>H1772773774775776778</t>
   </si>
   <si>
-    <t>testeq7867+1@gmail.com</t>
+    <t>sarikaqa7+nr2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -754,7 +754,7 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{1C94BA48-9649-1746-9DE6-55F8B3DA6B11}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{14FF7464-C1D3-BF41-BC72-83E0FD1CB997}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{8A288E0E-7F0E-0941-BD31-72C41B6F7069}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{510A385A-93F7-D64C-B9AF-C0146D5D4D24}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{027109FE-318F-A54F-AE5C-7BA20A10C634}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06E5BC-F834-5B48-98D0-3C57F0FF5E9E}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/TestData/logins.xlsx
+++ b/TestData/logins.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12DE0AC-5613-7A41-8D47-CD3D24B839F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C605ABB-134B-DB48-AF20-D47053456D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-660" windowWidth="38400" windowHeight="19540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="18740" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="EQCare" sheetId="4" r:id="rId4"/>
     <sheet name="Clinic" sheetId="5" r:id="rId5"/>
     <sheet name="Users" sheetId="6" r:id="rId6"/>
-    <sheet name="Nova" sheetId="7" r:id="rId7"/>
+    <sheet name="Practitest" sheetId="8" r:id="rId7"/>
+    <sheet name="Nova" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Admin</t>
   </si>
@@ -147,6 +148,9 @@
   </si>
   <si>
     <t>sarikaqa7+nr2@gmail.com</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
   </si>
 </sst>
 </file>
@@ -242,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -256,6 +260,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -807,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06E5BC-F834-5B48-98D0-3C57F0FF5E9E}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -937,6 +942,37 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAF7634-3827-E648-9486-6E72DB2D1D0A}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>28919642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF550E68-59AC-7C47-9024-4BAF9464D212}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/TestData/logins.xlsx
+++ b/TestData/logins.xlsx
@@ -3,26 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C605ABB-134B-DB48-AF20-D47053456D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1F989-EA0B-3E4E-8088-B5FD9FDBD877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="18740" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="18740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
     <sheet name="UAT" sheetId="2" r:id="rId2"/>
     <sheet name="Prod" sheetId="3" r:id="rId3"/>
     <sheet name="EQCare" sheetId="4" r:id="rId4"/>
-    <sheet name="Clinic" sheetId="5" r:id="rId5"/>
-    <sheet name="Users" sheetId="6" r:id="rId6"/>
-    <sheet name="Practitest" sheetId="8" r:id="rId7"/>
-    <sheet name="Nova" sheetId="7" r:id="rId8"/>
+    <sheet name="Login" sheetId="9" r:id="rId5"/>
+    <sheet name="Clinic" sheetId="5" r:id="rId6"/>
+    <sheet name="Users" sheetId="6" r:id="rId7"/>
+    <sheet name="Practitest" sheetId="8" r:id="rId8"/>
+    <sheet name="Nova" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Admin</t>
   </si>
@@ -151,13 +152,43 @@
   </si>
   <si>
     <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Account Edit Personal Information</t>
+  </si>
+  <si>
+    <t>Account Edit Account Information</t>
+  </si>
+  <si>
+    <t>29754452</t>
+  </si>
+  <si>
+    <t>Account Upload Profile Pic</t>
+  </si>
+  <si>
+    <t>Account Uplaod Govt Id</t>
+  </si>
+  <si>
+    <t>Family Tab visible</t>
+  </si>
+  <si>
+    <t>Add Child</t>
+  </si>
+  <si>
+    <t>Delete Child</t>
+  </si>
+  <si>
+    <t>sarikaqa7+j1@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +240,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,12 +306,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -260,7 +338,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -692,7 +778,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -767,6 +853,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D04AB40-EB56-A14B-8FB4-388B0BBF584C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452FF465-3101-B947-BD8C-AC29CFCB2980}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -808,7 +929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06E5BC-F834-5B48-98D0-3C57F0FF5E9E}">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -941,38 +1062,119 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAF7634-3827-E648-9486-6E72DB2D1D0A}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>28919642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+    <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>29754173</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>29754390</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>29754391</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>29754448</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>29754451</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>29840573</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>29840574</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF550E68-59AC-7C47-9024-4BAF9464D212}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/TestData/logins.xlsx
+++ b/TestData/logins.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1F989-EA0B-3E4E-8088-B5FD9FDBD877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6492ACC-AABD-4047-B0FC-EF6FA78ED474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="18740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="18700" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,20 @@
     <sheet name="Prod" sheetId="3" r:id="rId3"/>
     <sheet name="EQCare" sheetId="4" r:id="rId4"/>
     <sheet name="Login" sheetId="9" r:id="rId5"/>
-    <sheet name="Clinic" sheetId="5" r:id="rId6"/>
-    <sheet name="Users" sheetId="6" r:id="rId7"/>
-    <sheet name="Practitest" sheetId="8" r:id="rId8"/>
-    <sheet name="Nova" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="Clinic" sheetId="5" r:id="rId7"/>
+    <sheet name="Test" sheetId="11" r:id="rId8"/>
+    <sheet name="Users" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId10"/>
+    <sheet name="Practitest" sheetId="8" r:id="rId11"/>
+    <sheet name="Nova" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>Admin</t>
   </si>
@@ -115,9 +118,6 @@
     <t>2000-11-11</t>
   </si>
   <si>
-    <t>No Pic</t>
-  </si>
-  <si>
     <t>4384436248</t>
   </si>
   <si>
@@ -181,7 +181,73 @@
     <t>Delete Child</t>
   </si>
   <si>
-    <t>sarikaqa7+j1@gmail.com</t>
+    <t>sarikaqa7+bell@gmail.com</t>
+  </si>
+  <si>
+    <t>sarikaqa7+co1@gmail.com</t>
+  </si>
+  <si>
+    <t>HealthCardExp</t>
+  </si>
+  <si>
+    <t>TestLocation</t>
+  </si>
+  <si>
+    <t>Test-Date</t>
+  </si>
+  <si>
+    <t>2022-11-11</t>
+  </si>
+  <si>
+    <t>Home page Url</t>
+  </si>
+  <si>
+    <t>31383037</t>
+  </si>
+  <si>
+    <t>Profile Pic</t>
+  </si>
+  <si>
+    <t>31383038</t>
+  </si>
+  <si>
+    <t>Language Link</t>
+  </si>
+  <si>
+    <t>31383040</t>
+  </si>
+  <si>
+    <t>Consultation Link</t>
+  </si>
+  <si>
+    <t>31383041</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>31383039</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>31383172</t>
+  </si>
+  <si>
+    <t>Intake Form Url</t>
+  </si>
+  <si>
+    <t>31383173</t>
+  </si>
+  <si>
+    <t>Submit Form</t>
+  </si>
+  <si>
+    <t>31383174</t>
+  </si>
+  <si>
+    <t>Intake Form Cancel</t>
   </si>
 </sst>
 </file>
@@ -269,9 +335,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -324,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -346,6 +412,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -740,12 +807,313 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182F54FD-EF04-0041-B6BE-D3C445F2F621}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="19">
+        <v>43831</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{737224CD-7A8A-4342-B643-737FAD83E5E5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAF7634-3827-E648-9486-6E72DB2D1D0A}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="69.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>29754173</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>29754390</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>29754391</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>29754448</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>29754451</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>29840573</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>29840574</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>31383036</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF550E68-59AC-7C47-9024-4BAF9464D212}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B7E1FE0E-961E-8640-A23E-FFC6D5711A32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -797,7 +1165,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -856,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D04AB40-EB56-A14B-8FB4-388B0BBF584C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -874,20 +1242,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>52</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{54D11D0B-6836-DB40-9C34-07BFE17A81A7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295B416D-4237-5C48-8914-2AFF5F1729D0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452FF465-3101-B947-BD8C-AC29CFCB2980}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -929,12 +1312,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06E5BC-F834-5B48-98D0-3C57F0FF5E9E}">
-  <dimension ref="A1:M3"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FE5E9B-C95A-1343-9EC6-5798B8C6F6C5}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="19">
+        <v>43831</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="9"/>
+      <c r="K3" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{80720070-36B9-F442-925B-0AF7F16531AA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06E5BC-F834-5B48-98D0-3C57F0FF5E9E}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -943,9 +1425,10 @@
     <col min="8" max="8" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -974,18 +1457,18 @@
         <v>25</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -994,36 +1477,33 @@
         <v>27</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1032,22 +1512,22 @@
         <v>27</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>13</v>
@@ -1060,154 +1540,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAF7634-3827-E648-9486-6E72DB2D1D0A}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="69.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>29754173</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>29754390</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>29754391</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>29754448</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>29754451</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>29840573</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>29840574</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF550E68-59AC-7C47-9024-4BAF9464D212}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B7E1FE0E-961E-8640-A23E-FFC6D5711A32}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestData/logins.xlsx
+++ b/TestData/logins.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6492ACC-AABD-4047-B0FC-EF6FA78ED474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA37672-4273-DB4D-9E32-A344DF970638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="18700" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32220" yWindow="1040" windowWidth="25600" windowHeight="16160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <t>Delete Child</t>
   </si>
   <si>
-    <t>sarikaqa7+bell@gmail.com</t>
-  </si>
-  <si>
     <t>sarikaqa7+co1@gmail.com</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>Intake Form Cancel</t>
+  </si>
+  <si>
+    <t>sarikaqa7+a2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -849,18 +849,18 @@
         <v>38</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -878,7 +878,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>32</v>
@@ -899,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAF7634-3827-E648-9486-6E72DB2D1D0A}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1007,71 +1007,71 @@
         <v>31383036</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
         <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
         <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
         <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
         <v>70</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
         <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1242,18 +1242,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>51</v>
+    <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{54D11D0B-6836-DB40-9C34-07BFE17A81A7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1350,13 +1347,13 @@
         <v>38</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>6</v>
@@ -1364,7 +1361,7 @@
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -1382,7 +1379,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>32</v>
@@ -1415,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06E5BC-F834-5B48-98D0-3C57F0FF5E9E}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/TestData/logins.xlsx
+++ b/TestData/logins.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA37672-4273-DB4D-9E32-A344DF970638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1136AF-1651-9A40-88FA-A24EE5460437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32220" yWindow="1040" windowWidth="25600" windowHeight="16160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>Admin</t>
   </si>
@@ -127,12 +127,6 @@
     <t>Montreal</t>
   </si>
   <si>
-    <t>30 Saint-Catherine St W,</t>
-  </si>
-  <si>
-    <t>H2X 0C8</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -248,6 +242,18 @@
   </si>
   <si>
     <t>sarikaqa7+a2@gmail.com</t>
+  </si>
+  <si>
+    <t>70 Saint-Catherine St W,</t>
+  </si>
+  <si>
+    <t>H2X 0C7</t>
+  </si>
+  <si>
+    <t>2000-03-25</t>
+  </si>
+  <si>
+    <t>H17171717</t>
   </si>
 </sst>
 </file>
@@ -807,7 +813,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -846,21 +852,21 @@
         <v>25</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -875,10 +881,10 @@
         <v>30</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>32</v>
@@ -911,7 +917,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -919,7 +925,7 @@
         <v>29754173</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -930,7 +936,7 @@
         <v>29754390</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -941,7 +947,7 @@
         <v>29754391</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -949,10 +955,10 @@
     </row>
     <row r="5" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -963,7 +969,7 @@
         <v>29754448</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -974,7 +980,7 @@
         <v>29754451</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -985,7 +991,7 @@
         <v>29840573</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -996,7 +1002,7 @@
         <v>29840574</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1007,71 +1013,71 @@
         <v>31383036</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1171,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1244,7 +1250,7 @@
     </row>
     <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>13</v>
@@ -1344,16 +1350,16 @@
         <v>25</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>6</v>
@@ -1361,7 +1367,7 @@
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -1376,10 +1382,10 @@
         <v>30</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>32</v>
@@ -1413,7 +1419,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1421,7 +1427,7 @@
     <col min="1" max="1" width="35.83203125" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="10" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1454,7 +1460,7 @@
         <v>25</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>6</v>
@@ -1462,7 +1468,7 @@
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -1474,22 +1480,22 @@
         <v>27</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>13</v>
@@ -1497,7 +1503,7 @@
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -1509,22 +1515,22 @@
         <v>27</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>13</v>

--- a/TestData/logins.xlsx
+++ b/TestData/logins.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1136AF-1651-9A40-88FA-A24EE5460437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3414E7-D08B-1E4F-8635-6F64F1163C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,7 +253,7 @@
     <t>2000-03-25</t>
   </si>
   <si>
-    <t>H17171717</t>
+    <t>H0123456789</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/TestData/logins.xlsx
+++ b/TestData/logins.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3414E7-D08B-1E4F-8635-6F64F1163C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EE37C7-5927-C042-A9BB-E2C27335D05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>Admin</t>
   </si>
@@ -253,7 +253,31 @@
     <t>2000-03-25</t>
   </si>
   <si>
-    <t>H0123456789</t>
+    <t>9012345678</t>
+  </si>
+  <si>
+    <t>SarikaA</t>
+  </si>
+  <si>
+    <t>TestA</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>70 Saint-Catherine St W, A</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>H2X 0C8</t>
+  </si>
+  <si>
+    <t>2000-03-28</t>
+  </si>
+  <si>
+    <t>9012345677</t>
   </si>
 </sst>
 </file>
@@ -1416,15 +1440,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06E5BC-F834-5B48-98D0-3C57F0FF5E9E}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" style="10" customWidth="1"/>
@@ -1536,6 +1562,35 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{BCBF0B63-52D1-2C41-B0AF-48E0B53C6A08}"/>

--- a/TestData/logins.xlsx
+++ b/TestData/logins.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EE37C7-5927-C042-A9BB-E2C27335D05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DFEAB5-2BF5-B440-9CBF-822F1103F8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>Admin</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>9012345677</t>
+  </si>
+  <si>
+    <t>5144436247</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1446,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1518,7 +1521,7 @@
         <v>74</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>75</v>
@@ -1553,7 +1556,7 @@
         <v>74</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>75</v>
@@ -1585,7 +1588,7 @@
         <v>82</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>83</v>

--- a/TestData/logins.xlsx
+++ b/TestData/logins.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DFEAB5-2BF5-B440-9CBF-822F1103F8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85720D9F-7D92-D149-BFE6-11D275C84362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t>Admin</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>5144436247</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>Alberta</t>
   </si>
 </sst>
 </file>
@@ -1443,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06E5BC-F834-5B48-98D0-3C57F0FF5E9E}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1593,6 +1599,14 @@
       <c r="J9" s="11" t="s">
         <v>83</v>
       </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/logins.xlsx
+++ b/TestData/logins.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85720D9F-7D92-D149-BFE6-11D275C84362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A12844D-ACAC-6642-B88F-7C61B7B6D17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
